--- a/PV.xlsx
+++ b/PV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
   <si>
     <t>Area</t>
   </si>
@@ -152,24 +152,6 @@
   </si>
   <si>
     <t>Row number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dishwasher not working</t>
-  </si>
-  <si>
-    <t>hole in the wall</t>
-  </si>
-  <si>
-    <t>Dryer not present</t>
-  </si>
-  <si>
-    <t>shower tap not working. Bulb out</t>
-  </si>
-  <si>
-    <t>Marked</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -499,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,11 +522,9 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -557,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -572,7 +552,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -602,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -632,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -649,9 +629,7 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -664,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -694,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -711,9 +689,7 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -773,9 +749,7 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1364,16 +1338,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E33:E38"/>
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E25"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E33:E38"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 D7:D14 D17:D18 D20:D27 D29:D34 D36:D42 D44:D49 D51:D53">
